--- a/data/patientDrugSusceptibilityData.xlsx
+++ b/data/patientDrugSusceptibilityData.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1880" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="patientDrugSusceptibilityData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,11 +27,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="25">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Drug</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>First-line</t>
+  </si>
   <si>
     <t>Ethambutol</t>
   </si>
   <si>
+    <t>Sensitive</t>
+  </si>
+  <si>
+    <t>No resistance mutation detected</t>
+  </si>
+  <si>
     <t>Pyrazinimide</t>
   </si>
   <si>
@@ -41,19 +65,7 @@
     <t>Rifampin</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Drug</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Details</t>
+    <t>Second-line</t>
   </si>
   <si>
     <t>Streptomycin</t>
@@ -74,18 +86,6 @@
     <t>Capreomycin</t>
   </si>
   <si>
-    <t>Sensitive</t>
-  </si>
-  <si>
-    <t>No resistance mutation detected</t>
-  </si>
-  <si>
-    <t>First-line</t>
-  </si>
-  <si>
-    <t>Second-line</t>
-  </si>
-  <si>
     <t>Resistant</t>
   </si>
   <si>
@@ -93,16 +93,41 @@
   </si>
   <si>
     <t>rpoB (S531L)</t>
+  </si>
+  <si>
+    <t>pncA (T47A)</t>
+  </si>
+  <si>
+    <t>emb (M306I)</t>
+  </si>
+  <si>
+    <t>rpsL (K43R)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,14 +157,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,29 +444,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -445,16 +474,16 @@
         <v>12345678</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -462,16 +491,16 @@
         <v>12345678</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -479,16 +508,16 @@
         <v>12345678</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -496,118 +525,118 @@
         <v>12345678</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>12345678</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12345678</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12345678</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>12345678</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>12345678</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>12345678</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>12345678</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>12345678</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>12345678</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>12345678</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>12345678</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -615,16 +644,16 @@
         <v>23456789</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -632,16 +661,16 @@
         <v>23456789</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -649,10 +678,10 @@
         <v>23456789</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -666,10 +695,10 @@
         <v>23456789</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -683,16 +712,16 @@
         <v>23456789</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -700,16 +729,16 @@
         <v>23456789</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -717,16 +746,16 @@
         <v>23456789</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -734,16 +763,16 @@
         <v>23456789</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -751,16 +780,16 @@
         <v>23456789</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -768,16 +797,356 @@
         <v>23456789</v>
       </c>
       <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>34567890</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>34567890</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>34567890</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>34567890</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>34567890</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>34567890</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>34567890</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
         <v>15</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>34567890</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
         <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>34567890</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>34567890</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>45678901</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>45678901</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>45678901</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>45678901</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45678901</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45678901</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45678901</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45678901</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>45678901</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>45678901</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
